--- a/ePICreator/Biktarvy.xlsx
+++ b/ePICreator/Biktarvy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6BEB5-E425-5B44-898B-34955A938AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB53109-EFB4-B24A-877D-D1E0589689F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="6" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -801,12 +801,12 @@
 throw away medicines you no longer use. These measures will help protect the environment.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;strong&gt;What Biktarvy contains&lt;/strong&gt;&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;What Biktarvy contains&lt;/strong&gt;&lt;/p&gt;
 &lt;p&gt;The active substances are bictegravir, emtricitabine and tenofovir alafenamide. Each Biktarvy tablet
 contains bictegravir sodium equivalent to 30 mg of bictegravir, 120 mg of emtricitabine and tenofovir
 alafenamide fumarate equivalent to 15 mg of tenofovir alafenamide.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;The other ingredients are&lt;/strong&gt;&lt;br&gt;&lt;em&gt;Tablet core&lt;/em&gt;&lt;br&gt;Microcrystalline cellulose (E460), croscarmellose sodium (E468), magnesium stearate (E470b).&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;Film-coating&lt;/em&gt;&lt;br&gt;Polyvinyl alcohol (E203), titanium dioxide (E171), macrogol (E1521), talc (E553b), iron oxide red
+&lt;p&gt;&lt;strong&gt;The other ingredients are&lt;/strong&gt;&lt;em&gt;Tablet core&lt;/em&gt;Microcrystalline cellulose (E460), croscarmellose sodium (E468), magnesium stearate (E470b).&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Film-coating&lt;/em&gt;Polyvinyl alcohol (E203), titanium dioxide (E171), macrogol (E1521), talc (E553b), iron oxide red
 (E172), iron oxide black (E172).&lt;/p&gt;
 &lt;p&gt;&lt;strong&gt;What Biktarvy looks like and contents of the pack&lt;/strong&gt;  &lt;/p&gt;
 &lt;p&gt;Biktarvy 30 mg/120 mg/15 mg film-coated tablets are pink, capsule-shaped, film-coated tablets,
@@ -814,7 +814,7 @@
 &lt;p&gt;The tablets are supplied in a bottle. Not all pack sizes may be marketed.&lt;/p&gt;
 &lt;p&gt;Biktarvy comes in bottles of 30 tablets and in packs made up of 3 bottles, each containing 30 tablets.
 Each bottle contains a silica gel desiccant that must be kept in the bottle to help protect your tablets.
-The silica gel desiccant is contained in a separate sachet or canister and should not be swallowed.&lt;/p&gt;</t>
+The silica gel desiccant is contained in a separate sachet or canister and should not be swallowed.&lt;/p&gt;    </t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,9 +959,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1415,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M9:M10"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1495,7 +1492,9 @@
       <c r="F2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H2" s="6" t="s">
         <v>146</v>
       </c>
@@ -2113,7 +2112,7 @@
       <c r="C2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E2" s="8" t="s">
